--- a/CN_COVID_data/Xian_og_data.xlsx
+++ b/CN_COVID_data/Xian_og_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COVID_Prediction\Code\CN_COVID_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982BC002-C046-4DA6-8F4A-97DDD347472F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C57BEC1-3E72-41C5-A13A-EB046DBFF307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{21DECD56-40BA-4158-BA14-8FD27BD53724}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D2" sqref="D2:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
